--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-878569.9631708281</v>
+        <v>-881118.6203568489</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>370.0648965483574</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>138.0957464459795</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>91.47612611658032</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>12.18080485996668</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>188.2196394312116</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>201.0564857346829</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>87.03931034269903</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.451579104186333</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103746</v>
       </c>
       <c r="F8" t="n">
-        <v>71.36814379188164</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>76.95030199542414</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>195.7124181736951</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>204.2584534680979</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>124.1997375316487</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520898</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>63.84155641259266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.3842717819789</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365916</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.67353929276547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788173629</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>198.3347409055081</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>166.3208822291517</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511618059</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428217</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.260746886978</v>
+        <v>164.2607468869786</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036685</v>
+        <v>151.6755878036691</v>
       </c>
       <c r="D34" t="n">
-        <v>133.044239723253</v>
+        <v>55.15928926145675</v>
       </c>
       <c r="E34" t="n">
-        <v>52.97777888982705</v>
+        <v>130.8627293516105</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973095</v>
+        <v>149.9529049973102</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512646</v>
+        <v>124.7234795512652</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360622</v>
+        <v>65.69460302360685</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516237</v>
+        <v>50.80401341516301</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066853</v>
+        <v>165.4550527066859</v>
       </c>
       <c r="T34" t="n">
-        <v>201.834217032329</v>
+        <v>201.8342170323296</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942848</v>
+        <v>270.6132410942855</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288687</v>
+        <v>236.5664100288693</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416317</v>
+        <v>270.9517650416323</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940778</v>
+        <v>210.1384220940785</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571355</v>
+        <v>203.0134200571361</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652643</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943747</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>621.075219562924</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>206.0027694079204</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.5809963705854</v>
+        <v>1856.279347499052</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6448134426785</v>
+        <v>1856.279347499052</v>
       </c>
       <c r="D4" t="n">
-        <v>474.5281740303427</v>
+        <v>1856.279347499052</v>
       </c>
       <c r="E4" t="n">
-        <v>326.6150804479496</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="F4" t="n">
-        <v>326.6150804479496</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="G4" t="n">
-        <v>158.9122438226686</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279953</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760402</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>2567.638376557165</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>2278.221206520205</v>
       </c>
       <c r="X4" t="n">
-        <v>1196.022040344355</v>
+        <v>2050.231655622188</v>
       </c>
       <c r="Y4" t="n">
-        <v>975.2294612008251</v>
+        <v>2037.927812329292</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>588.3953084626816</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>419.4591255347747</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>419.4591255347747</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>419.4591255347747</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>809.1878876062117</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y7" t="n">
-        <v>588.3953084626816</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.004869410821</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.042352470409</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.042352470409</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
-        <v>893.2540998721647</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.8122911638649</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C10" t="n">
-        <v>685.8122911638649</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D10" t="n">
-        <v>535.6956517515291</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>387.782558169136</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>387.782558169136</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1448.088895386286</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1158.98602851193</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1158.98602851193</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1158.98602851193</v>
       </c>
       <c r="X10" t="n">
-        <v>906.604870307395</v>
+        <v>930.9964776139127</v>
       </c>
       <c r="Y10" t="n">
-        <v>685.8122911638649</v>
+        <v>710.2038984703826</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5191,10 +5191,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1990.740875317771</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1701.665648661969</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.578742244364</v>
+        <v>1701.665648661969</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1412.248478625009</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1184.258927726991</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327646</v>
+        <v>869.9745311434704</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048577</v>
+        <v>701.0383482155635</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>550.9217088032277</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036841</v>
+        <v>403.0086152208346</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>256.1186677229242</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1272.41557511724</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630042</v>
+        <v>1051.62299597371</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.19258031117</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075952</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332398</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014787</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355943</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,43 +5577,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438234</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998428</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237714</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732781</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356197</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D19" t="n">
-        <v>779.614337923284</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408909</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429805</v>
+        <v>377.8878263102357</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578604</v>
+        <v>210.6917270251156</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797722</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580254</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924452</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718565</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681604</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783587</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640057</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,43 +5738,43 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.195150674522</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229127</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468412</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.32599396348</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338361</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>784.5811134804952</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>615.6449305525886</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402528</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>1005.373692624025</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>784.5811134804952</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5981,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400713</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121644</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797744</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703111</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270444</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,10 +6388,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539607</v>
+        <v>778.7344347539504</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058107</v>
+        <v>625.5267703057997</v>
       </c>
       <c r="D34" t="n">
-        <v>491.1386493732319</v>
+        <v>569.8103165063484</v>
       </c>
       <c r="E34" t="n">
-        <v>437.6257414037097</v>
+        <v>437.6257414037115</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037097</v>
+        <v>437.6257414037115</v>
       </c>
       <c r="G34" t="n">
-        <v>286.1581605983465</v>
+        <v>286.1581605983476</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1748479203014</v>
+        <v>160.1748479203021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403054</v>
+        <v>189.4682024403048</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278538</v>
+        <v>466.5729859278524</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658036</v>
+        <v>872.3871010658016</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758848</v>
+        <v>1309.812324758845</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380866</v>
+        <v>1742.637717380862</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051861</v>
+        <v>2127.582519051856</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587429</v>
+        <v>2435.673495587424</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276338</v>
+        <v>2570.287251276332</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008497</v>
+        <v>2518.970066008491</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143159</v>
+        <v>2351.843750143151</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645856</v>
+        <v>2147.970803645849</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469811</v>
+        <v>1874.624095469804</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743681</v>
+        <v>1635.668125743673</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186478</v>
+        <v>1361.979474186469</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768217</v>
+        <v>1149.718441768208</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044436</v>
+        <v>944.6543811044338</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384026</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,34 +7327,34 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380719</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311314</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,16 +7570,16 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7840,13 +7840,13 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>11.86547352390437</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>156.512017941341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>53.27888879774046</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>206.4038484921281</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>13.14699685919032</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>127.9379057921793</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>84.77391660561969</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922661</v>
+        <v>145.1398665102899</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.1584408891718</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>24.58839950885161</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194832</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>88.18825743108287</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>119.8635921600925</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>211.5151132204104</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.88495046179692</v>
       </c>
       <c r="E34" t="n">
-        <v>77.88495046178282</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279719</v>
+        <v>129.8498147279726</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-8.668621376273222e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1200910.281947968</v>
+        <v>1200910.281947969</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187548.4044340063</v>
+        <v>187548.4044340064</v>
       </c>
       <c r="C2" t="n">
         <v>225786.486712678</v>
@@ -26320,19 +26320,19 @@
         <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
-        <v>221965.3149147515</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147515</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147517</v>
@@ -26341,7 +26341,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>224415.4372624254</v>
+        <v>224415.4372624255</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.850344853233158e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.396174295427045e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596756</v>
+        <v>12456.98663596678</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.7592931762</v>
+        <v>92025.75929317664</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>16290.74400645667</v>
+        <v>16290.74400645646</v>
       </c>
       <c r="M4" t="n">
         <v>19157.89151488699</v>
@@ -26454,10 +26454,10 @@
         <v>19157.89151488699</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1260120.572887095</v>
+        <v>-1260468.191816902</v>
       </c>
       <c r="C6" t="n">
+        <v>27498.47912814011</v>
+      </c>
+      <c r="D6" t="n">
         <v>27498.47912813982</v>
       </c>
-      <c r="D6" t="n">
-        <v>27498.4791281395</v>
-      </c>
       <c r="E6" t="n">
-        <v>-215736.7089683042</v>
+        <v>-215771.4468937398</v>
       </c>
       <c r="F6" t="n">
-        <v>109675.752839051</v>
+        <v>109641.0149136154</v>
       </c>
       <c r="G6" t="n">
-        <v>109675.7528390536</v>
+        <v>109641.0149136154</v>
       </c>
       <c r="H6" t="n">
-        <v>109675.7528390509</v>
+        <v>109641.0149136153</v>
       </c>
       <c r="I6" t="n">
-        <v>109675.7528390487</v>
+        <v>109641.0149136154</v>
       </c>
       <c r="J6" t="n">
-        <v>-107855.4495582263</v>
+        <v>-107890.1874836624</v>
       </c>
       <c r="K6" t="n">
-        <v>109675.7528390511</v>
+        <v>109641.0149136154</v>
       </c>
       <c r="L6" t="n">
-        <v>93236.1187842201</v>
+        <v>93223.65469830991</v>
       </c>
       <c r="M6" t="n">
-        <v>11438.72005069954</v>
+        <v>11438.72005069908</v>
       </c>
       <c r="N6" t="n">
         <v>103464.4793438757</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26750,10 +26750,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080448</v>
+        <v>8.713414197081043</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.991302304506946e-12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.183231456205249e-12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>222.7020862222419</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>185.1814529213707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>58.38173768023222</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.2580762848508</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>306.4732379112243</v>
       </c>
       <c r="F8" t="n">
-        <v>335.5079019498298</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>89.07550626360408</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>23.83653110247408</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28308,13 +28308,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.979483492206782e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.514238697533293e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="C34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="D34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="E34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="F34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="G34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="H34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="I34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="J34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="K34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="L34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="M34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="N34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="O34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="P34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="R34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="S34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="T34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="U34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="V34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="W34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5712332949593</v>
+        <v>15.57123329495868</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622724</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418556</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175826</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071767</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437227</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179175</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.9023428740565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.133804440254</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789168</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107903099</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238434</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992783</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315395351</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791266</v>
+        <v>96.61771655791205</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045942</v>
+        <v>279.9038217045936</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140907</v>
+        <v>409.9132476140901</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960044</v>
+        <v>441.8436602960038</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848667</v>
+        <v>437.1973662848661</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010047</v>
+        <v>388.8331330010041</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015843</v>
+        <v>311.2030066015836</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948577</v>
+        <v>135.973490594857</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
